--- a/[Tugas 2] 8-puzzle Informed Search.xlsx
+++ b/[Tugas 2] 8-puzzle Informed Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 4\Mata Kuliah\Kecerdasan Buatan (KB)\Pertemuan\(5) 08-03-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D764D-E966-4070-9B0A-D150FC14838D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549E7680-326D-41EE-A336-CF47A49A87BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iterative" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
-  <si>
-    <t>Cabang 2 langkah 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>-</t>
   </si>
@@ -101,12 +98,36 @@
   <si>
     <t>State terakhir</t>
   </si>
+  <si>
+    <t>Method 2</t>
+  </si>
+  <si>
+    <t>step 26</t>
+  </si>
+  <si>
+    <t>step 32</t>
+  </si>
+  <si>
+    <t>step 20 to step 26:</t>
+  </si>
+  <si>
+    <t>step 26 to step 32:</t>
+  </si>
+  <si>
+    <t>5 + 5 + (26 - 20) + 8:</t>
+  </si>
+  <si>
+    <t>5 + 5 + 6 + (32 - 26) + 0:</t>
+  </si>
+  <si>
+    <t>Methode 1 lebih pendek dari methode 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,52 +136,69 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -201,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +262,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -253,13 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -268,12 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -282,6 +323,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,13 +612,13 @@
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P132" sqref="P132"/>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -590,7 +661,7 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -633,7 +704,7 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -676,7 +747,7 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -736,9 +807,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -762,7 +833,7 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -805,7 +876,7 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -848,7 +919,7 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -891,7 +962,7 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -934,7 +1005,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -977,7 +1048,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1019,7 +1090,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1105,7 +1176,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1123,11 +1194,11 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="R14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
       <c r="U14" s="1"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1"/>
@@ -1173,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="11">
         <v>4</v>
@@ -1298,7 +1369,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1341,7 +1412,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1392,7 +1463,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1414,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="11">
         <v>8</v>
@@ -1441,7 +1512,7 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1490,7 +1561,7 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1603,7 +1674,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="11">
         <v>6</v>
@@ -1746,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="11">
         <v>1</v>
@@ -1941,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="11">
         <v>4</v>
@@ -2134,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -2373,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -2600,7 +2671,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="13">
         <v>5</v>
@@ -2609,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -2620,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -2819,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="11">
         <v>3</v>
@@ -2962,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="11">
         <v>2</v>
@@ -3103,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" s="11">
         <v>8</v>
@@ -3296,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -3474,7 +3545,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" s="13">
         <v>5</v>
@@ -3532,7 +3603,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="13">
         <v>6</v>
@@ -3549,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -3794,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
@@ -3983,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="11">
         <v>6</v>
@@ -4124,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="11">
         <v>3</v>
@@ -4265,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" s="11">
         <v>2</v>
@@ -4305,7 +4376,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M80" s="13">
         <v>1</v>
@@ -4366,7 +4437,7 @@
         <v>5</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="13">
         <v>6</v>
@@ -4478,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -4717,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
@@ -4905,11 +4976,11 @@
       <c r="R92" s="11">
         <v>5</v>
       </c>
-      <c r="S92" s="11" t="s">
-        <v>1</v>
+      <c r="S92" s="11">
+        <v>8</v>
       </c>
       <c r="T92" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
@@ -4957,8 +5028,8 @@
       <c r="S93" s="11">
         <v>4</v>
       </c>
-      <c r="T93" s="11">
-        <v>6</v>
+      <c r="T93" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
@@ -4995,7 +5066,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M94" s="13">
         <v>1</v>
@@ -5108,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -5116,10 +5187,10 @@
         <v>5</v>
       </c>
       <c r="S96" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T96" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
@@ -5165,10 +5236,10 @@
         <v>7</v>
       </c>
       <c r="S97" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
@@ -5305,11 +5376,11 @@
       <c r="R100" s="11">
         <v>5</v>
       </c>
-      <c r="S100" s="11">
-        <v>4</v>
+      <c r="S100" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="T100" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
@@ -5355,10 +5426,10 @@
         <v>7</v>
       </c>
       <c r="S101" s="11">
-        <v>6</v>
-      </c>
-      <c r="T101" s="11" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="T101" s="11">
+        <v>4</v>
       </c>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
@@ -5492,14 +5563,14 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="11">
+      <c r="R104" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S104" s="11">
         <v>5</v>
       </c>
-      <c r="S104" s="11">
-        <v>4</v>
-      </c>
-      <c r="T104" s="11" t="s">
-        <v>1</v>
+      <c r="T104" s="11">
+        <v>6</v>
       </c>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
@@ -5545,10 +5616,10 @@
         <v>7</v>
       </c>
       <c r="S105" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T105" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
@@ -5683,13 +5754,13 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="11">
+        <v>7</v>
+      </c>
+      <c r="S108" s="11">
         <v>5</v>
       </c>
-      <c r="S108" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="T108" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
@@ -5731,14 +5802,14 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="11">
-        <v>7</v>
+      <c r="R109" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="S109" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T109" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
@@ -5874,14 +5945,14 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="11" t="s">
-        <v>1</v>
+      <c r="R112" s="11">
+        <v>7</v>
       </c>
       <c r="S112" s="11">
         <v>5</v>
       </c>
       <c r="T112" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
@@ -5924,13 +5995,13 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="11">
-        <v>7</v>
-      </c>
-      <c r="S113" s="11">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="S113" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="T113" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
@@ -5967,7 +6038,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M114" s="13">
         <v>1</v>
@@ -6022,7 +6093,7 @@
         <v>7</v>
       </c>
       <c r="N115" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" s="13">
         <v>4</v>
@@ -6091,7 +6162,7 @@
         <v>5</v>
       </c>
       <c r="T116" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
@@ -6133,14 +6204,14 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="11" t="s">
-        <v>1</v>
+      <c r="R117" s="11">
+        <v>8</v>
       </c>
       <c r="S117" s="11">
-        <v>6</v>
-      </c>
-      <c r="T117" s="11">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="T117" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
@@ -6280,8 +6351,8 @@
       <c r="S120" s="11">
         <v>5</v>
       </c>
-      <c r="T120" s="11">
-        <v>4</v>
+      <c r="T120" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
@@ -6324,13 +6395,13 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="11">
+        <v>8</v>
+      </c>
+      <c r="S121" s="11">
+        <v>4</v>
+      </c>
+      <c r="T121" s="11">
         <v>6</v>
-      </c>
-      <c r="S121" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T121" s="11">
-        <v>8</v>
       </c>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
@@ -6467,11 +6538,11 @@
       <c r="R124" s="11">
         <v>7</v>
       </c>
-      <c r="S124" s="11">
+      <c r="S124" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T124" s="11">
         <v>5</v>
-      </c>
-      <c r="T124" s="11">
-        <v>4</v>
       </c>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
@@ -6514,13 +6585,13 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="11">
+        <v>8</v>
+      </c>
+      <c r="S125" s="11">
+        <v>4</v>
+      </c>
+      <c r="T125" s="11">
         <v>6</v>
-      </c>
-      <c r="S125" s="11">
-        <v>8</v>
-      </c>
-      <c r="T125" s="11" t="s">
-        <v>1</v>
       </c>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
@@ -6658,10 +6729,10 @@
         <v>7</v>
       </c>
       <c r="S128" s="11">
+        <v>4</v>
+      </c>
+      <c r="T128" s="11">
         <v>5</v>
-      </c>
-      <c r="T128" s="11" t="s">
-        <v>1</v>
       </c>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
@@ -6704,13 +6775,13 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="11">
+        <v>8</v>
+      </c>
+      <c r="S129" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T129" s="11">
         <v>6</v>
-      </c>
-      <c r="S129" s="11">
-        <v>8</v>
-      </c>
-      <c r="T129" s="11">
-        <v>4</v>
       </c>
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
@@ -6849,8 +6920,8 @@
       <c r="R132" s="11">
         <v>7</v>
       </c>
-      <c r="S132" s="11" t="s">
-        <v>1</v>
+      <c r="S132" s="11">
+        <v>4</v>
       </c>
       <c r="T132" s="11">
         <v>5</v>
@@ -6896,13 +6967,13 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="11">
+        <v>8</v>
+      </c>
+      <c r="S133" s="11">
         <v>6</v>
       </c>
-      <c r="S133" s="11">
-        <v>8</v>
-      </c>
-      <c r="T133" s="11">
-        <v>4</v>
+      <c r="T133" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
@@ -6945,7 +7016,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
+      <c r="S134" s="12"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
@@ -6987,9 +7058,15 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
+      <c r="R135" s="10">
+        <v>1</v>
+      </c>
+      <c r="S135" s="11">
+        <v>2</v>
+      </c>
+      <c r="T135" s="11">
+        <v>3</v>
+      </c>
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
@@ -7030,9 +7107,15 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
+      <c r="R136" s="11">
+        <v>7</v>
+      </c>
+      <c r="S136" s="11">
+        <v>4</v>
+      </c>
+      <c r="T136" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
@@ -7073,9 +7156,15 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
+      <c r="R137" s="11">
+        <v>8</v>
+      </c>
+      <c r="S137" s="11">
+        <v>6</v>
+      </c>
+      <c r="T137" s="11">
+        <v>5</v>
+      </c>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
@@ -7117,7 +7206,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
+      <c r="S138" s="12"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
@@ -7158,10 +7247,18 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
-      <c r="T139" s="1"/>
+      <c r="Q139" s="1">
+        <v>32</v>
+      </c>
+      <c r="R139" s="36">
+        <v>1</v>
+      </c>
+      <c r="S139" s="37">
+        <v>2</v>
+      </c>
+      <c r="T139" s="37">
+        <v>3</v>
+      </c>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
@@ -7202,9 +7299,15 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
+      <c r="R140" s="37">
+        <v>7</v>
+      </c>
+      <c r="S140" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T140" s="37">
+        <v>4</v>
+      </c>
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
@@ -7245,9 +7348,15 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
-      <c r="T141" s="1"/>
+      <c r="R141" s="37">
+        <v>8</v>
+      </c>
+      <c r="S141" s="37">
+        <v>6</v>
+      </c>
+      <c r="T141" s="37">
+        <v>5</v>
+      </c>
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
@@ -7288,9 +7397,9 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
+      <c r="R142" s="33"/>
+      <c r="S142" s="33"/>
+      <c r="T142" s="33"/>
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
@@ -7331,9 +7440,9 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
+      <c r="R143" s="34"/>
+      <c r="S143" s="35"/>
+      <c r="T143" s="35"/>
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
@@ -7374,9 +7483,9 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
+      <c r="R144" s="35"/>
+      <c r="S144" s="35"/>
+      <c r="T144" s="35"/>
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
@@ -7417,9 +7526,9 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
+      <c r="R145" s="35"/>
+      <c r="S145" s="35"/>
+      <c r="T145" s="35"/>
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
@@ -7460,9 +7569,9 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
+      <c r="R146" s="33"/>
+      <c r="S146" s="33"/>
+      <c r="T146" s="33"/>
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
@@ -7503,9 +7612,9 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
+      <c r="R147" s="34"/>
+      <c r="S147" s="35"/>
+      <c r="T147" s="35"/>
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
@@ -7546,9 +7655,9 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
+      <c r="R148" s="35"/>
+      <c r="S148" s="35"/>
+      <c r="T148" s="35"/>
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
@@ -7589,9 +7698,9 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
+      <c r="R149" s="35"/>
+      <c r="S149" s="35"/>
+      <c r="T149" s="35"/>
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
@@ -7632,9 +7741,9 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
+      <c r="R150" s="33"/>
+      <c r="S150" s="33"/>
+      <c r="T150" s="33"/>
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
@@ -7675,9 +7784,9 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
+      <c r="R151" s="34"/>
+      <c r="S151" s="35"/>
+      <c r="T151" s="35"/>
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
@@ -7718,9 +7827,9 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
+      <c r="R152" s="35"/>
+      <c r="S152" s="35"/>
+      <c r="T152" s="35"/>
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
@@ -7761,9 +7870,9 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
+      <c r="R153" s="35"/>
+      <c r="S153" s="35"/>
+      <c r="T153" s="35"/>
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
@@ -7804,9 +7913,9 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
+      <c r="R154" s="33"/>
+      <c r="S154" s="33"/>
+      <c r="T154" s="33"/>
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
@@ -7847,9 +7956,9 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
+      <c r="R155" s="34"/>
+      <c r="S155" s="35"/>
+      <c r="T155" s="35"/>
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
@@ -7890,9 +7999,9 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
+      <c r="R156" s="35"/>
+      <c r="S156" s="35"/>
+      <c r="T156" s="35"/>
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
@@ -7933,9 +8042,9 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
+      <c r="R157" s="35"/>
+      <c r="S157" s="35"/>
+      <c r="T157" s="35"/>
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
@@ -7976,9 +8085,9 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
+      <c r="R158" s="33"/>
+      <c r="S158" s="33"/>
+      <c r="T158" s="33"/>
       <c r="U158" s="1"/>
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
@@ -8019,9 +8128,9 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
+      <c r="R159" s="34"/>
+      <c r="S159" s="35"/>
+      <c r="T159" s="35"/>
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
@@ -8062,9 +8171,9 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
+      <c r="R160" s="35"/>
+      <c r="S160" s="35"/>
+      <c r="T160" s="35"/>
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
@@ -8105,9 +8214,9 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
+      <c r="R161" s="35"/>
+      <c r="S161" s="35"/>
+      <c r="T161" s="35"/>
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
@@ -8148,9 +8257,9 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
+      <c r="R162" s="33"/>
+      <c r="S162" s="33"/>
+      <c r="T162" s="33"/>
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
@@ -8191,9 +8300,9 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
+      <c r="R163" s="34"/>
+      <c r="S163" s="35"/>
+      <c r="T163" s="35"/>
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
@@ -8234,9 +8343,9 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
+      <c r="R164" s="35"/>
+      <c r="S164" s="35"/>
+      <c r="T164" s="35"/>
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
@@ -8277,9 +8386,9 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
+      <c r="R165" s="35"/>
+      <c r="S165" s="35"/>
+      <c r="T165" s="35"/>
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
@@ -8320,9 +8429,9 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
+      <c r="R166" s="33"/>
+      <c r="S166" s="33"/>
+      <c r="T166" s="33"/>
       <c r="U166" s="1"/>
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
@@ -8363,9 +8472,9 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
+      <c r="R167" s="34"/>
+      <c r="S167" s="35"/>
+      <c r="T167" s="35"/>
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
@@ -8406,9 +8515,9 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
+      <c r="R168" s="35"/>
+      <c r="S168" s="35"/>
+      <c r="T168" s="35"/>
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
@@ -8449,9 +8558,9 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="35"/>
+      <c r="T169" s="35"/>
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
@@ -8492,9 +8601,9 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
+      <c r="R170" s="33"/>
+      <c r="S170" s="33"/>
+      <c r="T170" s="33"/>
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
@@ -8535,9 +8644,9 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
+      <c r="R171" s="34"/>
+      <c r="S171" s="35"/>
+      <c r="T171" s="35"/>
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
@@ -8578,9 +8687,9 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
+      <c r="R172" s="35"/>
+      <c r="S172" s="35"/>
+      <c r="T172" s="35"/>
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
@@ -8621,9 +8730,9 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
+      <c r="R173" s="35"/>
+      <c r="S173" s="35"/>
+      <c r="T173" s="35"/>
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
@@ -44222,346 +44331,568 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" style="15"/>
+    <col min="6" max="6" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <v>4</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <v>6</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
+        <v>7</v>
+      </c>
+      <c r="C16" s="19">
+        <v>8</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+      <c r="I19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11">
+        <v>5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="19">
+        <v>7</v>
+      </c>
+      <c r="C21" s="19">
+        <v>8</v>
+      </c>
+      <c r="D21" s="19">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="19">
+        <v>3</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="19">
+        <v>7</v>
+      </c>
+      <c r="C25" s="19">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19">
+        <v>6</v>
+      </c>
+      <c r="G25" s="11">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11">
+        <v>5</v>
+      </c>
+      <c r="I25" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="19">
+        <v>8</v>
+      </c>
+      <c r="C26" s="19">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>8</v>
+      </c>
+      <c r="H26" s="11">
+        <v>4</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="19">
+        <v>2</v>
+      </c>
+      <c r="D29" s="19">
+        <v>3</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="36">
+        <v>1</v>
+      </c>
+      <c r="H29" s="37">
+        <v>2</v>
+      </c>
+      <c r="I29" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="19">
+        <v>7</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4</v>
+      </c>
+      <c r="G30" s="37">
+        <v>7</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="19">
+        <v>8</v>
+      </c>
+      <c r="C31" s="19">
+        <v>6</v>
+      </c>
+      <c r="D31" s="19">
+        <v>5</v>
+      </c>
+      <c r="G31" s="37">
+        <v>8</v>
+      </c>
+      <c r="H31" s="37">
+        <v>6</v>
+      </c>
+      <c r="I31" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19">
-        <v>4</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
-        <v>6</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="19">
-        <v>7</v>
-      </c>
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="22">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="22">
-        <v>8</v>
-      </c>
-      <c r="D10" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="22">
-        <v>7</v>
-      </c>
-      <c r="C11" s="22">
-        <v>4</v>
-      </c>
-      <c r="D11" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="22">
-        <v>5</v>
-      </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22">
-        <v>6</v>
-      </c>
-      <c r="D15" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
-        <v>7</v>
-      </c>
-      <c r="C16" s="22">
-        <v>8</v>
-      </c>
-      <c r="D16" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="22">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22">
-        <v>2</v>
-      </c>
-      <c r="D19" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="22">
-        <v>5</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="22">
-        <v>7</v>
-      </c>
-      <c r="C21" s="22">
-        <v>8</v>
-      </c>
-      <c r="D21" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="22">
-        <v>1</v>
-      </c>
-      <c r="C24" s="22">
-        <v>2</v>
-      </c>
-      <c r="D24" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="22">
-        <v>7</v>
-      </c>
-      <c r="C25" s="22">
-        <v>5</v>
-      </c>
-      <c r="D25" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="22">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22">
-        <v>4</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1</v>
-      </c>
-      <c r="C29" s="22">
-        <v>2</v>
-      </c>
-      <c r="D29" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="22">
-        <v>7</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="22">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22">
-        <v>6</v>
-      </c>
-      <c r="D31" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="B33" s="18">
+        <v>30</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B34" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="22">
+        <v>18</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="22">
+        <v>21</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="22">
+        <v>20</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27">
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="22">
+        <v>20</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="29">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="23">
         <f>SUM(E34:E37)</f>
         <v>79</v>
       </c>
+      <c r="F38" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="40">
+        <f>SUM(J34:J37)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
@@ -44579,261 +44910,261 @@
   </sheetPr>
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24">
+        <v>4</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="24">
+        <v>6</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="24">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="C6" s="24">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="25">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25">
+        <v>8</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="30">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="25">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25">
         <v>5</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>6</v>
+      </c>
+      <c r="D13" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="25">
+        <v>7</v>
+      </c>
+      <c r="C14" s="25">
+        <v>8</v>
+      </c>
+      <c r="D14" s="25">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="30">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="25">
+        <v>5</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
         <v>6</v>
       </c>
-      <c r="C5" s="30">
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="25">
+        <v>7</v>
+      </c>
+      <c r="C18" s="25">
+        <v>8</v>
+      </c>
+      <c r="D18" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="C20" s="25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="25">
+        <v>7</v>
+      </c>
+      <c r="C21" s="25">
+        <v>5</v>
+      </c>
+      <c r="D21" s="25">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="30">
+      <c r="C22" s="25">
+        <v>4</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2</v>
+      </c>
+      <c r="D24" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="25">
         <v>7</v>
       </c>
-      <c r="C6" s="30">
-        <v>3</v>
-      </c>
-      <c r="D6" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="31">
-        <v>5</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="31">
+      <c r="C25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="25">
+        <v>8</v>
+      </c>
+      <c r="C26" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="31">
-        <v>8</v>
-      </c>
-      <c r="D9" s="31">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="31">
-        <v>7</v>
-      </c>
-      <c r="C10" s="31">
-        <v>4</v>
-      </c>
-      <c r="D10" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="31">
-        <v>5</v>
-      </c>
-      <c r="C12" s="31">
-        <v>1</v>
-      </c>
-      <c r="D12" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31">
-        <v>6</v>
-      </c>
-      <c r="D13" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="31">
-        <v>7</v>
-      </c>
-      <c r="C14" s="31">
-        <v>8</v>
-      </c>
-      <c r="D14" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="31">
-        <v>1</v>
-      </c>
-      <c r="C16" s="31">
-        <v>2</v>
-      </c>
-      <c r="D16" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="31">
-        <v>5</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="31">
-        <v>6</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="31">
-        <v>7</v>
-      </c>
-      <c r="C18" s="31">
-        <v>8</v>
-      </c>
-      <c r="D18" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="31">
-        <v>1</v>
-      </c>
-      <c r="C20" s="31">
-        <v>2</v>
-      </c>
-      <c r="D20" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="31">
-        <v>7</v>
-      </c>
-      <c r="C21" s="31">
-        <v>5</v>
-      </c>
-      <c r="D21" s="31">
-        <v>6</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="31">
-        <v>8</v>
-      </c>
-      <c r="C22" s="31">
-        <v>4</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="31">
-        <v>1</v>
-      </c>
-      <c r="C24" s="31">
-        <v>2</v>
-      </c>
-      <c r="D24" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="31">
-        <v>7</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="31">
-        <v>4</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="31">
-        <v>8</v>
-      </c>
-      <c r="C26" s="31">
-        <v>6</v>
-      </c>
-      <c r="D26" s="31">
+      <c r="D26" s="25">
         <v>5</v>
       </c>
     </row>
